--- a/pa-temp-fix-system.com/php/shell/sp/adgroup/excel/8-19号错误的自动化广告_bak.xlsx
+++ b/pa-temp-fix-system.com/php/shell/sp/adgroup/excel/8-19号错误的自动化广告_bak.xlsx
@@ -4070,8 +4070,8 @@
   <sheetPr/>
   <dimension ref="A1:O1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
